--- a/biology/Zoologie/Altolamprologus/Altolamprologus.xlsx
+++ b/biology/Zoologie/Altolamprologus/Altolamprologus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  poissons du genre Altolamprologus sont endémiques du lac Tanganyika en Afrique. Ce sont des Cichlidae aux allures comprimées. Il existe plusieurs formes géographiques pour les deux espèces décrites et également des formes naines.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (23 janv. 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (23 janv. 2017) :
 Altolamprologus calvus  (Poll, 1978)
 Altolamprologus compressiceps  (Boulenger, 1898)</t>
         </is>
